--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3455457.062479523</v>
+        <v>3452439.472078586</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>144.0961626456563</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>81.47836036210275</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>112.856619986382</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>136.1286387281321</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>166.6660206362171</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>23.78506729491749</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>77.39042090546103</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>311.4936872159403</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>132.9397111390969</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>102.067592956851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.17442990531414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>82.49782848509886</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>240.9011959585342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.7115457768262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>197.6463325545002</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.5954779282454</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>66.90445977359191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>101.0041688483413</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>135.5947476878508</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.2422920270589</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.3517394623324</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385016</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>101.289814786355</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>140.0680651027555</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>199.3668334840801</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>540.6127852858276</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>540.6127852858276</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573123</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.527073573123</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D5" t="n">
-        <v>1346.261374966372</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="E5" t="n">
-        <v>960.4731223681279</v>
+        <v>830.0723311352949</v>
       </c>
       <c r="F5" t="n">
-        <v>549.4872175785204</v>
+        <v>419.0864263456874</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>405.1630222842783</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>77.96830232028111</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573123</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573123</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573123</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464726</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464726</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69838933464726</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406939</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>786.546878019087</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5830699172739</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>625.0304054621405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1113.485206214223</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.347833878256</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272.5660590645741</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>272.5660590645741</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>272.5660590645741</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1415.585130673964</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.665120589516</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>763.890154481005</v>
       </c>
       <c r="Y13" t="n">
-        <v>454.2145238948139</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1255.581729185646</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>966.1645591486849</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>966.1645591486849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.3719800051548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5498,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>3158.839393241174</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>3963.250971505325</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.3857973138602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>381.3857973138602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>231.2691579015244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118775</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>381.3857973138602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.3857973138602</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,10 +5741,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2413.343925613455</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.934124172602</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>4326.351294209562</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>4326.351294209562</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>4036.934124172602</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>4036.934124172602</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>4036.934124172602</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>614.2381923230582</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>921.5583256030199</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U28" t="n">
-        <v>862.1113288466635</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,31 +6446,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>2013.406634128704</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2292.946699347402</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1050.956765431391</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M33" t="n">
-        <v>921.5583256030199</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.969903867171</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>385.5899330013836</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X34" t="n">
-        <v>385.5899330013836</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y34" t="n">
-        <v>385.5899330013836</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,13 +6920,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,40 +7157,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7354,25 +7354,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,7 +7445,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7488,16 +7488,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
         <v>1517.99338900868</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>385.5899330013836</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>1297.535630674993</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013836</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X46" t="n">
-        <v>385.5899330013836</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y46" t="n">
-        <v>385.5899330013836</v>
+        <v>559.336330596485</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>9.900512684486046</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>80.50021372615203</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.6026921294541</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>80.50021372615237</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>38.86002301949878</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165112</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>38.86002301949887</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>80.50021372615237</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>285.1031356539328</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>20.63789864135472</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>188.88569463024</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>118.259532741255</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27.46652391869394</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>11.23644736529377</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>13.72241686974297</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>88.59101984407712</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>52.11417746079175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>185.2331835502361</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>185.233183550236</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>150.6426047107266</v>
+        <v>206.7631436983567</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.58968815487837</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>3.562088905203751</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>113.0824928447104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>124.4198406026822</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.4805103800785</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.17875599587231</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>52.77080983974787</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409904</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110775.1523884616</v>
+        <v>-111190.3668979285</v>
       </c>
       <c r="C6" t="n">
-        <v>479192.726826083</v>
+        <v>478777.5123166157</v>
       </c>
       <c r="D6" t="n">
-        <v>479192.7268260832</v>
+        <v>478777.5123166161</v>
       </c>
       <c r="E6" t="n">
-        <v>52441.99146106829</v>
+        <v>52107.82249393838</v>
       </c>
       <c r="F6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="G6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="H6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708348</v>
       </c>
       <c r="I6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708349</v>
       </c>
       <c r="J6" t="n">
-        <v>401178.8087453712</v>
+        <v>400844.6397782419</v>
       </c>
       <c r="K6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708348</v>
       </c>
       <c r="L6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="M6" t="n">
-        <v>442801.0127041275</v>
+        <v>442466.8437369975</v>
       </c>
       <c r="N6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708344</v>
       </c>
       <c r="O6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="P6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708348</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7798830960551</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>304.7595782939508</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>54.39020111224588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>150.1532355138456</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>247.1181493845779</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>128.1462489499438</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>1.88210574939702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>148.3192344835761</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.42908554841688</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>216.3012575783161</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.6420624321862</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3248897349523</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>415.0485280872609</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>390.9245907766182</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
@@ -36218,10 +36218,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.6157249145282</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>329.7579186821767</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>349.2844000699651</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>245.9534379510236</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>390.9245907766187</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>618.2977090519457</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>227.7313135728794</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>499.3100716807064</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452439.472078586</v>
+        <v>3527969.141743392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>214.8251240751935</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.47836036210275</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>136.1286387281321</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>23.78506729491749</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>50.10211945890704</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>77.39042090546103</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>59.96922873496572</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>132.9397111390969</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.75331897369085</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1293684350809</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.49782848509886</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.74772776898177</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.3747544580722</v>
       </c>
     </row>
     <row r="20">
@@ -2132,16 +2134,16 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>197.6463325545002</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>16.83551518996348</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>148.7416974947219</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>79.47420870022064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.9705404354299</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100.8589659155914</v>
       </c>
       <c r="H34" t="n">
-        <v>145.3517394623324</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385016</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.17442990531417</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>123.4233208501889</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>199.3668334840801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>590.6253087234725</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>590.6253087234725</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W4" t="n">
-        <v>590.6253087234725</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>590.6253087234725</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.823100673951</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.860583733539</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1215.860583733539</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>830.0723311352949</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>419.0864263456874</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>405.1630222842783</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>77.96830232028111</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4807,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2581.545423028548</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2581.545423028548</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2327.78363766664</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.378525311161</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.378525311161</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.378525311161</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>533.6251570374473</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1415.585130673964</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1215.665120589516</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T13" t="n">
-        <v>991.8797053790223</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>991.8797053790223</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>991.8797053790223</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>991.8797053790223</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X13" t="n">
-        <v>763.890154481005</v>
+        <v>936.0662010112171</v>
       </c>
       <c r="Y13" t="n">
-        <v>763.890154481005</v>
+        <v>715.273621867687</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.5934592981133</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.5934592981133</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.5934592981133</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>279.7035118002029</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5503,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5531,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>540.8181561206349</v>
       </c>
     </row>
     <row r="20">
@@ -5835,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899338</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698953</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4036.934124172602</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.997941244695</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D22" t="n">
-        <v>3867.997941244695</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244695</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.351294209562</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.351294209562</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.934124172602</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4036.934124172602</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>4036.934124172602</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>4241.487948057123</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
         <v>3459.155393916676</v>
@@ -6172,25 +6174,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054477</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843983</v>
+        <v>4643.928992030892</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057541</v>
+        <v>4643.928992030892</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851654</v>
+        <v>4643.928992030892</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814693</v>
+        <v>4643.928992030892</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>4643.928992030892</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>4423.136412887362</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764783</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4741.167820987513</v>
+        <v>1348.672131674345</v>
       </c>
       <c r="U28" t="n">
-        <v>4452.039182201071</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="V28" t="n">
-        <v>4197.354693995184</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W28" t="n">
-        <v>3907.937523958223</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.947973060206</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,22 +6457,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
         <v>1843.901542059518</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.639292072831</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.954803866944</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5376338299834</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X31" t="n">
-        <v>646.5480829319661</v>
+        <v>929.7860569443444</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.7555037884359</v>
+        <v>708.9934778008143</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6694,31 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>355.5716216891792</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C34" t="n">
-        <v>355.5716216891792</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D34" t="n">
-        <v>355.5716216891792</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="E34" t="n">
-        <v>355.5716216891792</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="F34" t="n">
-        <v>355.5716216891792</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="G34" t="n">
-        <v>355.5716216891792</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X34" t="n">
-        <v>758.0126656629491</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y34" t="n">
-        <v>537.2200865194189</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6922,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471192</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,43 +7159,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7640,25 +7642,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1297.535630674993</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1008.118460638033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>780.1289097400152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714813</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>277.671796620807</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>47.11745266354693</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.46652391869394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>134.7458406943958</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>25.20989889402256</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>88.59101984407712</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>204.7120458684258</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>72.80586356366732</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>206.7631436983567</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.73911495360727</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>65.6346025477862</v>
       </c>
       <c r="H34" t="n">
-        <v>3.562088905203751</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>120.4410431128982</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>128.7143224736391</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>52.77080983974787</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="J2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="L2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409902</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409901</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26436,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26445,10 +26447,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979285</v>
+        <v>-111190.3668979287</v>
       </c>
       <c r="C6" t="n">
-        <v>478777.5123166157</v>
+        <v>478777.512316616</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166161</v>
+        <v>478777.512316616</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393838</v>
+        <v>52107.82249393771</v>
       </c>
       <c r="F6" t="n">
-        <v>577267.8589708346</v>
+        <v>577267.8589708349</v>
       </c>
       <c r="G6" t="n">
         <v>577267.8589708346</v>
       </c>
       <c r="H6" t="n">
-        <v>577267.8589708348</v>
+        <v>577267.8589708344</v>
       </c>
       <c r="I6" t="n">
-        <v>577267.8589708349</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="J6" t="n">
-        <v>400844.6397782419</v>
+        <v>400844.6397782421</v>
       </c>
       <c r="K6" t="n">
         <v>577267.8589708348</v>
       </c>
       <c r="L6" t="n">
-        <v>577267.8589708346</v>
+        <v>577267.8589708345</v>
       </c>
       <c r="M6" t="n">
-        <v>442466.8437369975</v>
+        <v>442466.8437369976</v>
       </c>
       <c r="N6" t="n">
         <v>577267.8589708344</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,7 +27038,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>154.9059766032755</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.7595782939508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>150.1532355138456</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.1462489499438</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>299.138849258506</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>50.9968953246364</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>148.3192344835761</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>114.4464840740058</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>216.3012575783161</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6806436728783</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29038,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35740,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35966,10 +35968,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35980,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36203,16 +36205,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36455,7 +36457,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37087,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.606025510911</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>610.8663700188198</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37640,10 +37642,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38020,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>504.4912617279393</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3527969.141743392</v>
+        <v>3520952.12685168</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>157.5769977459663</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>214.8251240751935</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>47.3556158748184</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>50.10211945890704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>93.47079622669365</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>161.1486436253825</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>59.96922873496572</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75331897369085</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.8251764553484</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>120.1293684350809</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>18.94651169068067</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.74772776898177</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>193.3747544580722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.83551518996348</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>50.11070043745826</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.9705404354299</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8589659155914</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.17442990531417</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>123.4233208501889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1111.73617048297</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>839.9575620030787</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>839.9575620030787</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>428.9716572134711</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.115747685226</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>148.3579275038934</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>535.9356573576496</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2581.545423028548</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2581.545423028548</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.78363766664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1996.720750323069</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1996.720750323069</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.720750323069</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>261.391796148808</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>261.391796148808</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619129</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635867</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300437</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.6251570374473</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>116.354982056933</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909234</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>936.0662010112171</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.273621867687</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>426.5934592981133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>426.5934592981133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>426.5934592981133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>279.7035118002029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>736.1461909267684</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.8181561206349</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5989,52 +5989,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4643.928992030892</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>4643.928992030892</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>4643.928992030892</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4643.928992030892</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4643.928992030892</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4423.136412887362</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6223,52 +6223,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>616.5439301336035</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>298.2519690410883</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>147.8339605890316</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1348.672131674345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1059.543492887903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1059.543492887903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>770.1263228509424</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X28" t="n">
-        <v>542.1367719529251</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529251</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.21084526296</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>929.7860569443444</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.9934778008143</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>499.6294826737605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>349.5128432614248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>349.5128432614248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>349.5128432614248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,40 +6934,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277032</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845919</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>272.5660590645741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>272.5660590645741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471192</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>454.2145238948139</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1263.171146058931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1263.171146058931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1263.171146058931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1042.378566915401</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9181,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>308.125109627204</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714813</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.11745266354693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.5470567726969</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>134.7458406943958</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.20989889402256</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.105225817279774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>204.7120458684258</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>60.30854502681373</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.80586356366732</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>81.73911495360727</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.6346025477862</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>120.4410431128982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>128.7143224736391</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>44.17985890344634</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="N2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26447,10 +26447,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-111190.3668979287</v>
       </c>
       <c r="C6" t="n">
-        <v>478777.512316616</v>
+        <v>478777.5123166159</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.512316616</v>
+        <v>478777.5123166158</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393771</v>
+        <v>51133.23123421678</v>
       </c>
       <c r="F6" t="n">
-        <v>577267.8589708349</v>
+        <v>576293.267711113</v>
       </c>
       <c r="G6" t="n">
-        <v>577267.8589708346</v>
+        <v>576293.267711113</v>
       </c>
       <c r="H6" t="n">
-        <v>577267.8589708344</v>
+        <v>576293.2677111125</v>
       </c>
       <c r="I6" t="n">
-        <v>577267.8589708346</v>
+        <v>576293.2677111129</v>
       </c>
       <c r="J6" t="n">
-        <v>400844.6397782421</v>
+        <v>399870.0485185198</v>
       </c>
       <c r="K6" t="n">
-        <v>577267.8589708348</v>
+        <v>576293.2677111129</v>
       </c>
       <c r="L6" t="n">
-        <v>577267.8589708345</v>
+        <v>576293.2677111126</v>
       </c>
       <c r="M6" t="n">
-        <v>442466.8437369976</v>
+        <v>441492.252477276</v>
       </c>
       <c r="N6" t="n">
-        <v>577267.8589708344</v>
+        <v>576293.2677111132</v>
       </c>
       <c r="O6" t="n">
-        <v>577267.8589708346</v>
+        <v>576293.267711113</v>
       </c>
       <c r="P6" t="n">
-        <v>577267.8589708348</v>
+        <v>576293.2677111129</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>249.2990479957452</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>154.9059766032755</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>366.4285541459766</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>299.138849258506</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.95025179623759</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>50.9968953246364</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>114.4464840740058</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6806436728783</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>36.48462580370256</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110537</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058697</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>641.3196830252168</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.606025510911</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>504.4912617279393</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520952.12685168</v>
+        <v>3525891.389700711</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>157.5769977459663</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>104.3004803731276</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>94.92589417054711</v>
       </c>
       <c r="G5" t="n">
-        <v>47.3556158748184</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>93.47079622669365</v>
+        <v>144.396884460807</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>320.797539652425</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>130.8251764553484</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.94651169068067</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>185.1778893774797</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.7169081028642</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.806426921486</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>115.2165502573728</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>50.11070043745826</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>190.6405752120378</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>59.32456467617031</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2224.752638628377</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1855.790121687965</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1497.524423081215</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>1111.73617048297</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.752638628377</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.752638628377</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.223260609829</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.223260609829</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D5" t="n">
-        <v>839.9575620030787</v>
+        <v>894.986251472586</v>
       </c>
       <c r="E5" t="n">
-        <v>839.9575620030787</v>
+        <v>894.986251472586</v>
       </c>
       <c r="F5" t="n">
-        <v>428.9716572134711</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862865</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="C7" t="n">
-        <v>296.2710210862865</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="D7" t="n">
-        <v>296.2710210862865</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="E7" t="n">
-        <v>148.3579275038934</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165262</v>
+        <v>245.4549451025301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,31 +5026,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619129</v>
@@ -5062,22 +5062,22 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2449295548433</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2449295548433</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2449295548433</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2449295548433</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>116.354982056933</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850831</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>647.3860384416434</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>497.2693990293077</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>497.2693990293077</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>350.3794515313973</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>350.3794515313973</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.9614430793406</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,10 +5937,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
         <v>1090.100879744681</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6220,34 +6220,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>298.2519690410883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>147.8339605890316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,7 +6542,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>549.5984374701561</v>
@@ -6554,7 +6554,7 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1306.350032969985</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>762.5369059776569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,40 +6922,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582214</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646855</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>85.3000633212781</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5470567726969</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>101.0594630210977</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>8.7023373614078</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>14.74113413690327</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>106.3310108010164</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>60.30854502681373</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>30.90698584635149</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>159.2600886759245</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409899</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,22 +26487,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-111190.3668979287</v>
       </c>
       <c r="C6" t="n">
+        <v>478777.512316616</v>
+      </c>
+      <c r="D6" t="n">
         <v>478777.5123166159</v>
       </c>
-      <c r="D6" t="n">
-        <v>478777.5123166158</v>
-      </c>
       <c r="E6" t="n">
-        <v>51133.23123421678</v>
+        <v>52010.36336796622</v>
       </c>
       <c r="F6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="G6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="H6" t="n">
-        <v>576293.2677111125</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="I6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="J6" t="n">
-        <v>399870.0485185198</v>
+        <v>400747.1806522695</v>
       </c>
       <c r="K6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="L6" t="n">
-        <v>576293.2677111126</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="M6" t="n">
-        <v>441492.252477276</v>
+        <v>442369.384611025</v>
       </c>
       <c r="N6" t="n">
-        <v>576293.2677111132</v>
+        <v>577170.3998448621</v>
       </c>
       <c r="O6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448621</v>
       </c>
       <c r="P6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448623</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,22 +26755,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>249.2990479957452</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>70.11523243584392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>311.9501515711643</v>
       </c>
       <c r="G5" t="n">
-        <v>366.4285541459766</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>51.95025179623759</v>
+        <v>1.024163562124244</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>28.44342906498804</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>36.48462580370256</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,13 +36919,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,13 +38104,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
